--- a/converter/data/xlsx/20.3.B_SMJENA.XLSX
+++ b/converter/data/xlsx/20.3.B_SMJENA.XLSX
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RASPORED-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\RASPORED-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2579FE1-2F3A-4DDE-AC80-7DCEA3C1AB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="478"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="8" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="122">
   <si>
     <t>Predmetni profesor:</t>
   </si>
@@ -413,7 +412,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3387,6 +3386,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3423,53 +3455,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normalno" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalno 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normalno 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normalno 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normalno 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normalno 7" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Obično 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normalno 2" xfId="1"/>
+    <cellStyle name="Normalno 3" xfId="5"/>
+    <cellStyle name="Normalno 4" xfId="6"/>
+    <cellStyle name="Normalno 5" xfId="7"/>
+    <cellStyle name="Normalno 7" xfId="8"/>
+    <cellStyle name="Obično 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3513,7 +3512,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3573,7 +3572,7 @@
         <xdr:cNvPr id="4" name="Ravni poveznik sa strelicom 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9356BA76-2342-80A4-B7B1-82EF29840C84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9356BA76-2342-80A4-B7B1-82EF29840C84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3626,7 +3625,7 @@
         <xdr:cNvPr id="6" name="Ravni poveznik sa strelicom 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539C9A23-8909-198B-9F0A-20ABDC0D49BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{539C9A23-8909-198B-9F0A-20ABDC0D49BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3679,7 +3678,7 @@
         <xdr:cNvPr id="5" name="Ravni poveznik sa strelicom 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2D6A0A-C79D-26BF-72F8-8A8925C60C97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B2D6A0A-C79D-26BF-72F8-8A8925C60C97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3732,7 +3731,7 @@
         <xdr:cNvPr id="7" name="Ravni poveznik sa strelicom 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5162704E-C460-4662-B8B3-A8A0DC13F651}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5162704E-C460-4662-B8B3-A8A0DC13F651}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3846,23 +3845,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3898,23 +3880,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4090,14 +4055,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AO70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="65" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="65" workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4131,98 +4096,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="423" t="s">
+      <c r="A1" s="411" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="423"/>
-      <c r="C1" s="423"/>
-      <c r="D1" s="423"/>
-      <c r="E1" s="423"/>
-      <c r="F1" s="423"/>
-      <c r="G1" s="423"/>
-      <c r="H1" s="423"/>
-      <c r="I1" s="423"/>
-      <c r="J1" s="423"/>
-      <c r="K1" s="423"/>
-      <c r="L1" s="423"/>
-      <c r="M1" s="423"/>
-      <c r="N1" s="423"/>
-      <c r="O1" s="423"/>
-      <c r="P1" s="423"/>
-      <c r="Q1" s="423"/>
-      <c r="R1" s="423"/>
-      <c r="S1" s="423"/>
-      <c r="T1" s="423"/>
-      <c r="U1" s="423"/>
-      <c r="V1" s="423"/>
-      <c r="W1" s="423"/>
-      <c r="X1" s="423"/>
-      <c r="Y1" s="423"/>
-      <c r="Z1" s="423"/>
-      <c r="AA1" s="423"/>
-      <c r="AB1" s="423"/>
-      <c r="AC1" s="423"/>
-      <c r="AD1" s="423"/>
-      <c r="AE1" s="423"/>
-      <c r="AF1" s="423"/>
-      <c r="AG1" s="423"/>
-      <c r="AH1" s="423"/>
-      <c r="AI1" s="423"/>
-      <c r="AJ1" s="423"/>
-      <c r="AK1" s="423"/>
-      <c r="AL1" s="423"/>
+      <c r="B1" s="411"/>
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
+      <c r="N1" s="411"/>
+      <c r="O1" s="411"/>
+      <c r="P1" s="411"/>
+      <c r="Q1" s="411"/>
+      <c r="R1" s="411"/>
+      <c r="S1" s="411"/>
+      <c r="T1" s="411"/>
+      <c r="U1" s="411"/>
+      <c r="V1" s="411"/>
+      <c r="W1" s="411"/>
+      <c r="X1" s="411"/>
+      <c r="Y1" s="411"/>
+      <c r="Z1" s="411"/>
+      <c r="AA1" s="411"/>
+      <c r="AB1" s="411"/>
+      <c r="AC1" s="411"/>
+      <c r="AD1" s="411"/>
+      <c r="AE1" s="411"/>
+      <c r="AF1" s="411"/>
+      <c r="AG1" s="411"/>
+      <c r="AH1" s="411"/>
+      <c r="AI1" s="411"/>
+      <c r="AJ1" s="411"/>
+      <c r="AK1" s="411"/>
+      <c r="AL1" s="411"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="424" t="s">
+      <c r="B2" s="412" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="425"/>
-      <c r="D2" s="425"/>
-      <c r="E2" s="425"/>
-      <c r="F2" s="425"/>
-      <c r="G2" s="425"/>
-      <c r="H2" s="426"/>
-      <c r="I2" s="427" t="s">
+      <c r="C2" s="413"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="413"/>
+      <c r="F2" s="413"/>
+      <c r="G2" s="413"/>
+      <c r="H2" s="414"/>
+      <c r="I2" s="415" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="425"/>
-      <c r="K2" s="425"/>
-      <c r="L2" s="425"/>
-      <c r="M2" s="425"/>
-      <c r="N2" s="425"/>
-      <c r="O2" s="426"/>
-      <c r="P2" s="424" t="s">
+      <c r="J2" s="413"/>
+      <c r="K2" s="413"/>
+      <c r="L2" s="413"/>
+      <c r="M2" s="413"/>
+      <c r="N2" s="413"/>
+      <c r="O2" s="414"/>
+      <c r="P2" s="412" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="425"/>
-      <c r="R2" s="425"/>
-      <c r="S2" s="425"/>
-      <c r="T2" s="425"/>
-      <c r="U2" s="425"/>
-      <c r="V2" s="426"/>
-      <c r="W2" s="431" t="s">
+      <c r="Q2" s="413"/>
+      <c r="R2" s="413"/>
+      <c r="S2" s="413"/>
+      <c r="T2" s="413"/>
+      <c r="U2" s="413"/>
+      <c r="V2" s="414"/>
+      <c r="W2" s="419" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="432"/>
-      <c r="Y2" s="432"/>
-      <c r="Z2" s="432"/>
-      <c r="AA2" s="432"/>
-      <c r="AB2" s="432"/>
-      <c r="AC2" s="432"/>
-      <c r="AD2" s="433"/>
-      <c r="AE2" s="428" t="s">
+      <c r="X2" s="420"/>
+      <c r="Y2" s="420"/>
+      <c r="Z2" s="420"/>
+      <c r="AA2" s="420"/>
+      <c r="AB2" s="420"/>
+      <c r="AC2" s="420"/>
+      <c r="AD2" s="421"/>
+      <c r="AE2" s="416" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="429"/>
-      <c r="AG2" s="429"/>
-      <c r="AH2" s="429"/>
-      <c r="AI2" s="429"/>
-      <c r="AJ2" s="429"/>
-      <c r="AK2" s="429"/>
-      <c r="AL2" s="430"/>
+      <c r="AF2" s="417"/>
+      <c r="AG2" s="417"/>
+      <c r="AH2" s="417"/>
+      <c r="AI2" s="417"/>
+      <c r="AJ2" s="417"/>
+      <c r="AK2" s="417"/>
+      <c r="AL2" s="418"/>
     </row>
     <row r="3" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -6574,10 +6539,10 @@
       <c r="AB35" s="369" t="s">
         <v>75</v>
       </c>
-      <c r="AC35" s="417" t="s">
+      <c r="AC35" s="428" t="s">
         <v>114</v>
       </c>
-      <c r="AD35" s="418"/>
+      <c r="AD35" s="429"/>
       <c r="AE35" s="297"/>
       <c r="AF35" s="235" t="s">
         <v>69</v>
@@ -7574,12 +7539,8 @@
       </c>
       <c r="P50" s="217"/>
       <c r="Q50" s="216"/>
-      <c r="R50" s="218" t="s">
-        <v>83</v>
-      </c>
-      <c r="S50" s="216" t="s">
-        <v>83</v>
-      </c>
+      <c r="R50" s="218"/>
+      <c r="S50" s="216"/>
       <c r="T50" s="218" t="s">
         <v>83</v>
       </c>
@@ -8455,157 +8416,157 @@
       <c r="A62" s="405" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="421" t="s">
+      <c r="B62" s="432" t="s">
         <v>120</v>
       </c>
-      <c r="C62" s="421"/>
-      <c r="D62" s="421"/>
-      <c r="E62" s="421"/>
-      <c r="F62" s="421"/>
-      <c r="G62" s="421"/>
-      <c r="H62" s="421"/>
-      <c r="I62" s="421" t="s">
+      <c r="C62" s="432"/>
+      <c r="D62" s="432"/>
+      <c r="E62" s="432"/>
+      <c r="F62" s="432"/>
+      <c r="G62" s="432"/>
+      <c r="H62" s="432"/>
+      <c r="I62" s="432" t="s">
         <v>41</v>
       </c>
-      <c r="J62" s="421"/>
-      <c r="K62" s="421"/>
-      <c r="L62" s="421"/>
-      <c r="M62" s="421"/>
-      <c r="N62" s="421"/>
-      <c r="O62" s="421"/>
-      <c r="P62" s="421" t="s">
+      <c r="J62" s="432"/>
+      <c r="K62" s="432"/>
+      <c r="L62" s="432"/>
+      <c r="M62" s="432"/>
+      <c r="N62" s="432"/>
+      <c r="O62" s="432"/>
+      <c r="P62" s="432" t="s">
         <v>15</v>
       </c>
-      <c r="Q62" s="421"/>
-      <c r="R62" s="421"/>
-      <c r="S62" s="421"/>
-      <c r="T62" s="421"/>
-      <c r="U62" s="421"/>
-      <c r="V62" s="421"/>
+      <c r="Q62" s="432"/>
+      <c r="R62" s="432"/>
+      <c r="S62" s="432"/>
+      <c r="T62" s="432"/>
+      <c r="U62" s="432"/>
+      <c r="V62" s="432"/>
       <c r="W62" s="404"/>
-      <c r="X62" s="421" t="s">
+      <c r="X62" s="432" t="s">
         <v>42</v>
       </c>
-      <c r="Y62" s="421"/>
-      <c r="Z62" s="421"/>
-      <c r="AA62" s="421"/>
-      <c r="AB62" s="421"/>
-      <c r="AC62" s="421"/>
-      <c r="AD62" s="421"/>
+      <c r="Y62" s="432"/>
+      <c r="Z62" s="432"/>
+      <c r="AA62" s="432"/>
+      <c r="AB62" s="432"/>
+      <c r="AC62" s="432"/>
+      <c r="AD62" s="432"/>
       <c r="AE62" s="404"/>
-      <c r="AF62" s="421" t="s">
+      <c r="AF62" s="432" t="s">
         <v>52</v>
       </c>
-      <c r="AG62" s="421"/>
-      <c r="AH62" s="421"/>
-      <c r="AI62" s="421"/>
-      <c r="AJ62" s="421"/>
-      <c r="AK62" s="421"/>
-      <c r="AL62" s="422"/>
+      <c r="AG62" s="432"/>
+      <c r="AH62" s="432"/>
+      <c r="AI62" s="432"/>
+      <c r="AJ62" s="432"/>
+      <c r="AK62" s="432"/>
+      <c r="AL62" s="433"/>
     </row>
     <row r="63" spans="1:40" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A63" s="406" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="411" t="s">
+      <c r="B63" s="422" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="412"/>
-      <c r="D63" s="412"/>
-      <c r="E63" s="412"/>
-      <c r="F63" s="412"/>
-      <c r="G63" s="412"/>
-      <c r="H63" s="419"/>
-      <c r="I63" s="411" t="s">
+      <c r="C63" s="423"/>
+      <c r="D63" s="423"/>
+      <c r="E63" s="423"/>
+      <c r="F63" s="423"/>
+      <c r="G63" s="423"/>
+      <c r="H63" s="430"/>
+      <c r="I63" s="422" t="s">
         <v>11</v>
       </c>
-      <c r="J63" s="412"/>
-      <c r="K63" s="412"/>
-      <c r="L63" s="412"/>
-      <c r="M63" s="412"/>
-      <c r="N63" s="412"/>
-      <c r="O63" s="419"/>
-      <c r="P63" s="411" t="s">
+      <c r="J63" s="423"/>
+      <c r="K63" s="423"/>
+      <c r="L63" s="423"/>
+      <c r="M63" s="423"/>
+      <c r="N63" s="423"/>
+      <c r="O63" s="430"/>
+      <c r="P63" s="422" t="s">
         <v>119</v>
       </c>
-      <c r="Q63" s="412"/>
-      <c r="R63" s="412"/>
-      <c r="S63" s="412"/>
-      <c r="T63" s="412"/>
-      <c r="U63" s="412"/>
-      <c r="V63" s="419"/>
+      <c r="Q63" s="423"/>
+      <c r="R63" s="423"/>
+      <c r="S63" s="423"/>
+      <c r="T63" s="423"/>
+      <c r="U63" s="423"/>
+      <c r="V63" s="430"/>
       <c r="W63" s="407"/>
-      <c r="X63" s="411" t="s">
+      <c r="X63" s="422" t="s">
         <v>6</v>
       </c>
-      <c r="Y63" s="412"/>
-      <c r="Z63" s="412"/>
-      <c r="AA63" s="412"/>
-      <c r="AB63" s="412"/>
-      <c r="AC63" s="412"/>
-      <c r="AD63" s="419"/>
+      <c r="Y63" s="423"/>
+      <c r="Z63" s="423"/>
+      <c r="AA63" s="423"/>
+      <c r="AB63" s="423"/>
+      <c r="AC63" s="423"/>
+      <c r="AD63" s="430"/>
       <c r="AE63" s="407"/>
-      <c r="AF63" s="411" t="s">
+      <c r="AF63" s="422" t="s">
         <v>118</v>
       </c>
-      <c r="AG63" s="412"/>
-      <c r="AH63" s="412"/>
-      <c r="AI63" s="412"/>
-      <c r="AJ63" s="412"/>
-      <c r="AK63" s="412"/>
-      <c r="AL63" s="413"/>
+      <c r="AG63" s="423"/>
+      <c r="AH63" s="423"/>
+      <c r="AI63" s="423"/>
+      <c r="AJ63" s="423"/>
+      <c r="AK63" s="423"/>
+      <c r="AL63" s="424"/>
     </row>
     <row r="64" spans="1:40" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="408" t="s">
         <v>115</v>
       </c>
-      <c r="B64" s="414" t="s">
+      <c r="B64" s="425" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="415"/>
-      <c r="D64" s="415"/>
-      <c r="E64" s="415"/>
-      <c r="F64" s="415"/>
-      <c r="G64" s="415"/>
-      <c r="H64" s="420"/>
-      <c r="I64" s="414" t="s">
+      <c r="C64" s="426"/>
+      <c r="D64" s="426"/>
+      <c r="E64" s="426"/>
+      <c r="F64" s="426"/>
+      <c r="G64" s="426"/>
+      <c r="H64" s="431"/>
+      <c r="I64" s="425" t="s">
         <v>121</v>
       </c>
-      <c r="J64" s="415"/>
-      <c r="K64" s="415"/>
-      <c r="L64" s="415"/>
-      <c r="M64" s="415"/>
-      <c r="N64" s="415"/>
-      <c r="O64" s="420"/>
-      <c r="P64" s="414" t="s">
+      <c r="J64" s="426"/>
+      <c r="K64" s="426"/>
+      <c r="L64" s="426"/>
+      <c r="M64" s="426"/>
+      <c r="N64" s="426"/>
+      <c r="O64" s="431"/>
+      <c r="P64" s="425" t="s">
         <v>117</v>
       </c>
-      <c r="Q64" s="415"/>
-      <c r="R64" s="415"/>
-      <c r="S64" s="415"/>
-      <c r="T64" s="415"/>
-      <c r="U64" s="415"/>
-      <c r="V64" s="420"/>
+      <c r="Q64" s="426"/>
+      <c r="R64" s="426"/>
+      <c r="S64" s="426"/>
+      <c r="T64" s="426"/>
+      <c r="U64" s="426"/>
+      <c r="V64" s="431"/>
       <c r="W64" s="409"/>
-      <c r="X64" s="414" t="s">
+      <c r="X64" s="425" t="s">
         <v>55</v>
       </c>
-      <c r="Y64" s="415"/>
-      <c r="Z64" s="415"/>
-      <c r="AA64" s="415"/>
-      <c r="AB64" s="415"/>
-      <c r="AC64" s="415"/>
-      <c r="AD64" s="420"/>
+      <c r="Y64" s="426"/>
+      <c r="Z64" s="426"/>
+      <c r="AA64" s="426"/>
+      <c r="AB64" s="426"/>
+      <c r="AC64" s="426"/>
+      <c r="AD64" s="431"/>
       <c r="AE64" s="409"/>
-      <c r="AF64" s="414" t="s">
+      <c r="AF64" s="425" t="s">
         <v>26</v>
       </c>
-      <c r="AG64" s="415"/>
-      <c r="AH64" s="415"/>
-      <c r="AI64" s="415"/>
-      <c r="AJ64" s="415"/>
-      <c r="AK64" s="415"/>
-      <c r="AL64" s="416"/>
+      <c r="AG64" s="426"/>
+      <c r="AH64" s="426"/>
+      <c r="AI64" s="426"/>
+      <c r="AJ64" s="426"/>
+      <c r="AK64" s="426"/>
+      <c r="AL64" s="427"/>
     </row>
     <row r="66" spans="15:24" x14ac:dyDescent="0.2">
       <c r="O66" s="24"/>
@@ -8615,12 +8576,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:V2"/>
-    <mergeCell ref="AE2:AL2"/>
-    <mergeCell ref="W2:AD2"/>
     <mergeCell ref="AF63:AL63"/>
     <mergeCell ref="AF64:AL64"/>
     <mergeCell ref="AC35:AD35"/>
@@ -8637,6 +8592,12 @@
     <mergeCell ref="B62:H62"/>
     <mergeCell ref="I62:O62"/>
     <mergeCell ref="P62:V62"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="AE2:AL2"/>
+    <mergeCell ref="W2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8648,7 +8609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
